--- a/Civilworks cost/Expenditure_2016_17/Input output/IPC Distribution.xlsx
+++ b/Civilworks cost/Expenditure_2016_17/Input output/IPC Distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19968" windowHeight="7632" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="7635" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Package_wise_str_df" sheetId="13" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="600">
   <si>
     <t>O&amp;M During Construction</t>
   </si>
@@ -1782,7 +1782,58 @@
     <t>242/Kish-03 1st Bill</t>
   </si>
   <si>
-    <t>152/Kish-02  Bill</t>
+    <t>227/Kish/HFMLIP/02</t>
+  </si>
+  <si>
+    <t>228/Kish-04 1st Bill</t>
+  </si>
+  <si>
+    <t>126/KISH-02 1st Bill</t>
+  </si>
+  <si>
+    <t>149/KISH-07 1st Bill</t>
+  </si>
+  <si>
+    <t>152/KISH-02 .. Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netr(GATE) </t>
+  </si>
+  <si>
+    <t>GATE-01</t>
+  </si>
+  <si>
+    <t>176/KISH-13 1st Bill</t>
+  </si>
+  <si>
+    <t>197/KISH-14 1st Bill</t>
+  </si>
+  <si>
+    <t>198/KISH-5 1st Bill</t>
+  </si>
+  <si>
+    <t>201/KISH-6 1st Bill</t>
+  </si>
+  <si>
+    <t>227/KISH/HFMLIP/02</t>
+  </si>
+  <si>
+    <t>228/KISH-04 1st Bill</t>
+  </si>
+  <si>
+    <t>234/KISH-13 2nd Bill</t>
+  </si>
+  <si>
+    <t>241/KISH-07 2nd Bill</t>
+  </si>
+  <si>
+    <t>242/KISH-03 1st Bill</t>
+  </si>
+  <si>
+    <t>GATE-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netr(Gate) </t>
   </si>
 </sst>
 </file>
@@ -1827,7 +1878,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1867,6 +1918,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1911,7 +1968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2098,9 +2155,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2388,25 +2447,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="1" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>254</v>
       </c>
@@ -2447,7 +2506,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>113</v>
       </c>
@@ -2488,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>114</v>
       </c>
@@ -2529,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>115</v>
       </c>
@@ -2570,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>116</v>
       </c>
@@ -2611,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>80</v>
       </c>
@@ -2652,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>86</v>
       </c>
@@ -2693,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>117</v>
       </c>
@@ -2734,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>118</v>
       </c>
@@ -2775,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>119</v>
       </c>
@@ -2816,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>120</v>
       </c>
@@ -2857,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>79</v>
       </c>
@@ -2898,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>121</v>
       </c>
@@ -2939,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>122</v>
       </c>
@@ -2980,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>123</v>
       </c>
@@ -3021,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>124</v>
       </c>
@@ -3062,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
         <v>91</v>
       </c>
@@ -3103,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>125</v>
       </c>
@@ -3144,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>126</v>
       </c>
@@ -3185,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
         <v>127</v>
       </c>
@@ -3226,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
         <v>128</v>
       </c>
@@ -3267,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
         <v>76</v>
       </c>
@@ -3308,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
         <v>82</v>
       </c>
@@ -3349,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
         <v>129</v>
       </c>
@@ -3390,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
         <v>130</v>
       </c>
@@ -3431,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
         <v>131</v>
       </c>
@@ -3472,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
         <v>132</v>
       </c>
@@ -3513,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>135</v>
       </c>
@@ -3554,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>136</v>
       </c>
@@ -3595,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
         <v>137</v>
       </c>
@@ -3636,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
         <v>138</v>
       </c>
@@ -3677,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
         <v>139</v>
       </c>
@@ -3718,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
         <v>140</v>
       </c>
@@ -3759,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
         <v>141</v>
       </c>
@@ -3800,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
         <v>85</v>
       </c>
@@ -3841,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="51" t="s">
         <v>77</v>
       </c>
@@ -3882,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="51" t="s">
         <v>83</v>
       </c>
@@ -3923,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="51" t="s">
         <v>142</v>
       </c>
@@ -3964,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="51" t="s">
         <v>143</v>
       </c>
@@ -4005,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="51" t="s">
         <v>81</v>
       </c>
@@ -4046,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="51" t="s">
         <v>144</v>
       </c>
@@ -4087,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>90</v>
       </c>
@@ -4128,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
         <v>84</v>
       </c>
@@ -4169,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
         <v>88</v>
       </c>
@@ -4210,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
         <v>87</v>
       </c>
@@ -4251,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
         <v>89</v>
       </c>
@@ -4292,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
         <v>133</v>
       </c>
@@ -4333,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>146</v>
       </c>
@@ -4374,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="52" t="s">
         <v>147</v>
       </c>
@@ -4415,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
         <v>148</v>
       </c>
@@ -4456,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="52" t="s">
         <v>78</v>
       </c>
@@ -4495,6 +4554,88 @@
       </c>
       <c r="M51" s="50">
         <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="69" t="s">
+        <v>588</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="69">
+        <v>0</v>
+      </c>
+      <c r="D52" s="69">
+        <v>0</v>
+      </c>
+      <c r="E52" s="69">
+        <v>0</v>
+      </c>
+      <c r="F52" s="69">
+        <v>0</v>
+      </c>
+      <c r="G52" s="69">
+        <v>0</v>
+      </c>
+      <c r="H52" s="69">
+        <v>0</v>
+      </c>
+      <c r="I52" s="69">
+        <v>0</v>
+      </c>
+      <c r="J52" s="69">
+        <v>0</v>
+      </c>
+      <c r="K52" s="69">
+        <v>0</v>
+      </c>
+      <c r="L52" s="70">
+        <v>0</v>
+      </c>
+      <c r="M52" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="69" t="s">
+        <v>598</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="69">
+        <v>0</v>
+      </c>
+      <c r="D53" s="69">
+        <v>0</v>
+      </c>
+      <c r="E53" s="69">
+        <v>0</v>
+      </c>
+      <c r="F53" s="69">
+        <v>0</v>
+      </c>
+      <c r="G53" s="69">
+        <v>0</v>
+      </c>
+      <c r="H53" s="69">
+        <v>0</v>
+      </c>
+      <c r="I53" s="69">
+        <v>0</v>
+      </c>
+      <c r="J53" s="69">
+        <v>0</v>
+      </c>
+      <c r="K53" s="69">
+        <v>0</v>
+      </c>
+      <c r="L53" s="70">
+        <v>0</v>
+      </c>
+      <c r="M53" s="69">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4511,14 +4652,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="21" width="9.6640625" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="21" width="9.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>92</v>
       </c>
@@ -4586,7 +4727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>113</v>
       </c>
@@ -4612,7 +4753,7 @@
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>114</v>
       </c>
@@ -4638,7 +4779,7 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>115</v>
       </c>
@@ -4664,7 +4805,7 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>116</v>
       </c>
@@ -4690,7 +4831,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>80</v>
       </c>
@@ -4716,7 +4857,7 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>86</v>
       </c>
@@ -4742,7 +4883,7 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>117</v>
       </c>
@@ -4768,7 +4909,7 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>118</v>
       </c>
@@ -4794,7 +4935,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>119</v>
       </c>
@@ -4820,7 +4961,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>120</v>
       </c>
@@ -4846,7 +4987,7 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>79</v>
       </c>
@@ -4872,7 +5013,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>121</v>
       </c>
@@ -4898,7 +5039,7 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>122</v>
       </c>
@@ -4924,7 +5065,7 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>123</v>
       </c>
@@ -4950,7 +5091,7 @@
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>124</v>
       </c>
@@ -4976,7 +5117,7 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>91</v>
       </c>
@@ -5002,7 +5143,7 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>125</v>
       </c>
@@ -5028,7 +5169,7 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>126</v>
       </c>
@@ -5054,7 +5195,7 @@
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>127</v>
       </c>
@@ -5080,7 +5221,7 @@
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>128</v>
       </c>
@@ -5106,7 +5247,7 @@
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>76</v>
       </c>
@@ -5132,7 +5273,7 @@
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>82</v>
       </c>
@@ -5158,7 +5299,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>129</v>
       </c>
@@ -5184,7 +5325,7 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>130</v>
       </c>
@@ -5210,7 +5351,7 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>131</v>
       </c>
@@ -5236,7 +5377,7 @@
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>132</v>
       </c>
@@ -5262,7 +5403,7 @@
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>146</v>
       </c>
@@ -5288,7 +5429,7 @@
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>147</v>
       </c>
@@ -5314,7 +5455,7 @@
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>148</v>
       </c>
@@ -5340,7 +5481,7 @@
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>78</v>
       </c>
@@ -5366,7 +5507,7 @@
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>90</v>
       </c>
@@ -5392,7 +5533,7 @@
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>84</v>
       </c>
@@ -5418,7 +5559,7 @@
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>88</v>
       </c>
@@ -5444,7 +5585,7 @@
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>87</v>
       </c>
@@ -5470,7 +5611,7 @@
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>89</v>
       </c>
@@ -5496,7 +5637,7 @@
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>133</v>
       </c>
@@ -5522,7 +5663,7 @@
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>134</v>
       </c>
@@ -5548,7 +5689,7 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>135</v>
       </c>
@@ -5574,7 +5715,7 @@
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>136</v>
       </c>
@@ -5600,7 +5741,7 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>137</v>
       </c>
@@ -5626,7 +5767,7 @@
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>138</v>
       </c>
@@ -5652,7 +5793,7 @@
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>139</v>
       </c>
@@ -5678,7 +5819,7 @@
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>140</v>
       </c>
@@ -5704,7 +5845,7 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>141</v>
       </c>
@@ -5730,7 +5871,7 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>85</v>
       </c>
@@ -5756,7 +5897,7 @@
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>77</v>
       </c>
@@ -5782,7 +5923,7 @@
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>83</v>
       </c>
@@ -5808,7 +5949,7 @@
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>142</v>
       </c>
@@ -5834,7 +5975,7 @@
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>143</v>
       </c>
@@ -5860,7 +6001,7 @@
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>81</v>
       </c>
@@ -5886,7 +6027,7 @@
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>144</v>
       </c>
@@ -5912,7 +6053,7 @@
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>74</v>
       </c>
@@ -5938,7 +6079,7 @@
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>75</v>
       </c>
@@ -5964,7 +6105,7 @@
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>145</v>
       </c>
@@ -6003,13 +6144,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="13" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="13" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>92</v>
       </c>
@@ -6050,7 +6191,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>40</v>
       </c>
@@ -6067,7 +6208,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>48</v>
       </c>
@@ -6084,7 +6225,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>49</v>
       </c>
@@ -6101,7 +6242,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>50</v>
       </c>
@@ -6118,7 +6259,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>51</v>
       </c>
@@ -6135,7 +6276,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>52</v>
       </c>
@@ -6152,7 +6293,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>53</v>
       </c>
@@ -6169,7 +6310,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -6186,7 +6327,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>55</v>
       </c>
@@ -6203,7 +6344,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>56</v>
       </c>
@@ -6220,7 +6361,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>71</v>
       </c>
@@ -6237,134 +6378,134 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
     </row>
-    <row r="14" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
     </row>
-    <row r="15" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
     </row>
-    <row r="16" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
     </row>
-    <row r="17" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
     </row>
-    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
     </row>
-    <row r="23" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
     </row>
-    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
     </row>
-    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
     </row>
-    <row r="28" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
     </row>
-    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
       <c r="C29" s="28"/>
     </row>
-    <row r="30" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
     </row>
-    <row r="31" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
     </row>
-    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
     </row>
-    <row r="33" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
     </row>
-    <row r="34" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
     </row>
-    <row r="35" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
     </row>
-    <row r="36" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
     </row>
-    <row r="37" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
     </row>
-    <row r="38" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
     </row>
-    <row r="39" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
     </row>
-    <row r="40" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
     </row>
-    <row r="41" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
     </row>
-    <row r="42" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
     </row>
-    <row r="43" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
     </row>
-    <row r="44" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
     </row>
-    <row r="45" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
     </row>
-    <row r="46" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
     </row>
-    <row r="47" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
     </row>
-    <row r="48" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
     </row>
-    <row r="49" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
     </row>
-    <row r="50" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
     </row>
-    <row r="51" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
     </row>
-    <row r="52" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
     </row>
-    <row r="53" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29"/>
     </row>
-    <row r="54" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="29"/>
     </row>
-    <row r="55" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="29"/>
     </row>
   </sheetData>
@@ -6380,13 +6521,13 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="13" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="13" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>92</v>
       </c>
@@ -6427,7 +6568,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -6444,7 +6585,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>48</v>
       </c>
@@ -6461,7 +6602,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>49</v>
       </c>
@@ -6478,7 +6619,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>50</v>
       </c>
@@ -6495,7 +6636,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>51</v>
       </c>
@@ -6512,7 +6653,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>52</v>
       </c>
@@ -6529,7 +6670,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>53</v>
       </c>
@@ -6546,7 +6687,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>54</v>
       </c>
@@ -6563,7 +6704,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>55</v>
       </c>
@@ -6580,7 +6721,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>56</v>
       </c>
@@ -6597,7 +6738,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>71</v>
       </c>
@@ -6628,14 +6769,14 @@
       <selection pane="bottomLeft" activeCell="M9" sqref="M9:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="13.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.109375" style="1" customWidth="1"/>
-    <col min="6" max="9" width="13.5546875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="13.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="13.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>11</v>
       </c>
@@ -6664,7 +6805,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>9545</v>
       </c>
@@ -6693,7 +6834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>9546</v>
       </c>
@@ -6722,7 +6863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>9547</v>
       </c>
@@ -6751,7 +6892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>9548</v>
       </c>
@@ -6780,7 +6921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>9549</v>
       </c>
@@ -6809,7 +6950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>9550</v>
       </c>
@@ -6838,7 +6979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>9551</v>
       </c>
@@ -6867,7 +7008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9552</v>
       </c>
@@ -6896,7 +7037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9553</v>
       </c>
@@ -6925,7 +7066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9554</v>
       </c>
@@ -6954,7 +7095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9555</v>
       </c>
@@ -6983,7 +7124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9556</v>
       </c>
@@ -7012,7 +7153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9557</v>
       </c>
@@ -7041,7 +7182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>9558</v>
       </c>
@@ -7070,7 +7211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9559</v>
       </c>
@@ -7099,7 +7240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>9560</v>
       </c>
@@ -7128,7 +7269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9561</v>
       </c>
@@ -7157,7 +7298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>9562</v>
       </c>
@@ -7186,7 +7327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>9563</v>
       </c>
@@ -7215,7 +7356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>9564</v>
       </c>
@@ -7244,7 +7385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>9565</v>
       </c>
@@ -7273,7 +7414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>9566</v>
       </c>
@@ -7302,7 +7443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>9567</v>
       </c>
@@ -7331,7 +7472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>9568</v>
       </c>
@@ -7360,7 +7501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>9569</v>
       </c>
@@ -7389,7 +7530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>9570</v>
       </c>
@@ -7418,7 +7559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>9571</v>
       </c>
@@ -7447,7 +7588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>9574</v>
       </c>
@@ -7476,7 +7617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>9575</v>
       </c>
@@ -7505,7 +7646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>9576</v>
       </c>
@@ -7534,7 +7675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>9577</v>
       </c>
@@ -7563,7 +7704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>9578</v>
       </c>
@@ -7592,7 +7733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>9579</v>
       </c>
@@ -7621,7 +7762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>9580</v>
       </c>
@@ -7650,7 +7791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>9581</v>
       </c>
@@ -7679,7 +7820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>9582</v>
       </c>
@@ -7708,7 +7849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>9583</v>
       </c>
@@ -7737,7 +7878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>9584</v>
       </c>
@@ -7766,7 +7907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>9585</v>
       </c>
@@ -7795,7 +7936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>9586</v>
       </c>
@@ -7824,7 +7965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>9587</v>
       </c>
@@ -7853,7 +7994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>9588</v>
       </c>
@@ -7882,7 +8023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>9589</v>
       </c>
@@ -7911,7 +8052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>9590</v>
       </c>
@@ -7940,7 +8081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>9591</v>
       </c>
@@ -7969,7 +8110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>9592</v>
       </c>
@@ -7998,7 +8139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>9593</v>
       </c>
@@ -8027,7 +8168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>9595</v>
       </c>
@@ -8056,7 +8197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>9596</v>
       </c>
@@ -8085,7 +8226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>9597</v>
       </c>
@@ -8114,7 +8255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>9598</v>
       </c>
@@ -8143,7 +8284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>9599</v>
       </c>
@@ -8172,7 +8313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>9600</v>
       </c>
@@ -8201,7 +8342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>9601</v>
       </c>
@@ -8230,7 +8371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>9602</v>
       </c>
@@ -8259,7 +8400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>9603</v>
       </c>
@@ -8288,7 +8429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>9604</v>
       </c>
@@ -8317,7 +8458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>9605</v>
       </c>
@@ -8346,7 +8487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>9606</v>
       </c>
@@ -8375,7 +8516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>9607</v>
       </c>
@@ -8404,7 +8545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>9608</v>
       </c>
@@ -8433,7 +8574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>9609</v>
       </c>
@@ -8462,7 +8603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>9610</v>
       </c>
@@ -8491,7 +8632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>9611</v>
       </c>
@@ -8520,7 +8661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>9612</v>
       </c>
@@ -8549,7 +8690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>9613</v>
       </c>
@@ -8578,7 +8719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>9614</v>
       </c>
@@ -8607,7 +8748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>9615</v>
       </c>
@@ -8636,7 +8777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>9616</v>
       </c>
@@ -8665,7 +8806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>9617</v>
       </c>
@@ -8694,7 +8835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>9618</v>
       </c>
@@ -8723,7 +8864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>9619</v>
       </c>
@@ -8752,7 +8893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>9620</v>
       </c>
@@ -8781,7 +8922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>9621</v>
       </c>
@@ -8810,7 +8951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>9622</v>
       </c>
@@ -8839,7 +8980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>9623</v>
       </c>
@@ -8868,7 +9009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>9624</v>
       </c>
@@ -8897,7 +9038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>9625</v>
       </c>
@@ -8926,7 +9067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>9626</v>
       </c>
@@ -8955,7 +9096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>9627</v>
       </c>
@@ -8984,7 +9125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>9628</v>
       </c>
@@ -9013,7 +9154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>9629</v>
       </c>
@@ -9042,7 +9183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>9630</v>
       </c>
@@ -9071,7 +9212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>9631</v>
       </c>
@@ -9100,7 +9241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>9632</v>
       </c>
@@ -9129,7 +9270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>9633</v>
       </c>
@@ -9158,7 +9299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>9634</v>
       </c>
@@ -9187,7 +9328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>9635</v>
       </c>
@@ -9216,7 +9357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>9636</v>
       </c>
@@ -9245,7 +9386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>9637</v>
       </c>
@@ -9274,7 +9415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>9638</v>
       </c>
@@ -9303,7 +9444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>9639</v>
       </c>
@@ -9332,7 +9473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>9640</v>
       </c>
@@ -9361,7 +9502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>9641</v>
       </c>
@@ -9390,7 +9531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>9642</v>
       </c>
@@ -9419,7 +9560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>9643</v>
       </c>
@@ -9448,7 +9589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>9644</v>
       </c>
@@ -9477,7 +9618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>9645</v>
       </c>
@@ -9506,7 +9647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>9646</v>
       </c>
@@ -9535,7 +9676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>9647</v>
       </c>
@@ -9564,7 +9705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>9648</v>
       </c>
@@ -9593,7 +9734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>9649</v>
       </c>
@@ -9622,7 +9763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>9650</v>
       </c>
@@ -9651,7 +9792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>9651</v>
       </c>
@@ -9680,7 +9821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>9652</v>
       </c>
@@ -9709,7 +9850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>9653</v>
       </c>
@@ -9738,7 +9879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>9654</v>
       </c>
@@ -9767,7 +9908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>9655</v>
       </c>
@@ -9796,7 +9937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>9656</v>
       </c>
@@ -9825,7 +9966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>9657</v>
       </c>
@@ -9854,7 +9995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>9658</v>
       </c>
@@ -9883,7 +10024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>9659</v>
       </c>
@@ -9912,7 +10053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>9660</v>
       </c>
@@ -9941,7 +10082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>9661</v>
       </c>
@@ -9970,7 +10111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>9662</v>
       </c>
@@ -9999,7 +10140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>9663</v>
       </c>
@@ -10028,7 +10169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>9664</v>
       </c>
@@ -10057,7 +10198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>9665</v>
       </c>
@@ -10086,7 +10227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>9666</v>
       </c>
@@ -10115,7 +10256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>9667</v>
       </c>
@@ -10144,7 +10285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>9668</v>
       </c>
@@ -10173,7 +10314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>9669</v>
       </c>
@@ -10202,7 +10343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>9670</v>
       </c>
@@ -10231,7 +10372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>9671</v>
       </c>
@@ -10260,7 +10401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>9672</v>
       </c>
@@ -10289,7 +10430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>9673</v>
       </c>
@@ -10318,7 +10459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>9674</v>
       </c>
@@ -10347,7 +10488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>9675</v>
       </c>
@@ -10376,7 +10517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>9676</v>
       </c>
@@ -10405,7 +10546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>9677</v>
       </c>
@@ -10434,7 +10575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>9678</v>
       </c>
@@ -10463,7 +10604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>9679</v>
       </c>
@@ -10492,7 +10633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>9680</v>
       </c>
@@ -10521,7 +10662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>9681</v>
       </c>
@@ -10550,7 +10691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>9682</v>
       </c>
@@ -10579,7 +10720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>9683</v>
       </c>
@@ -10608,7 +10749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>9684</v>
       </c>
@@ -10637,7 +10778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>9685</v>
       </c>
@@ -10666,7 +10807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>9686</v>
       </c>
@@ -10695,7 +10836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>9687</v>
       </c>
@@ -10724,7 +10865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>9688</v>
       </c>
@@ -10753,7 +10894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>9689</v>
       </c>
@@ -10782,7 +10923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>9690</v>
       </c>
@@ -10811,7 +10952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>9691</v>
       </c>
@@ -10840,7 +10981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>9692</v>
       </c>
@@ -10869,7 +11010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>9693</v>
       </c>
@@ -10898,7 +11039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>9694</v>
       </c>
@@ -10927,7 +11068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>9695</v>
       </c>
@@ -10956,7 +11097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>9696</v>
       </c>
@@ -10985,7 +11126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>9697</v>
       </c>
@@ -11014,7 +11155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>9698</v>
       </c>
@@ -11043,7 +11184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>9699</v>
       </c>
@@ -11072,7 +11213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>9700</v>
       </c>
@@ -11101,7 +11242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>9701</v>
       </c>
@@ -11130,7 +11271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>9702</v>
       </c>
@@ -11159,7 +11300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>9703</v>
       </c>
@@ -11188,7 +11329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>9704</v>
       </c>
@@ -11217,7 +11358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>9705</v>
       </c>
@@ -11246,7 +11387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>9706</v>
       </c>
@@ -11275,7 +11416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>9707</v>
       </c>
@@ -11304,7 +11445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>9708</v>
       </c>
@@ -11333,7 +11474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>9709</v>
       </c>
@@ -11362,7 +11503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>9710</v>
       </c>
@@ -11391,7 +11532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>9711</v>
       </c>
@@ -11420,7 +11561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>9712</v>
       </c>
@@ -11449,7 +11590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>9713</v>
       </c>
@@ -11478,7 +11619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>9714</v>
       </c>
@@ -11507,7 +11648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>9715</v>
       </c>
@@ -11536,7 +11677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>9716</v>
       </c>
@@ -11565,7 +11706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>9717</v>
       </c>
@@ -11594,7 +11735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>9718</v>
       </c>
@@ -11623,7 +11764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>9719</v>
       </c>
@@ -11652,7 +11793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>9720</v>
       </c>
@@ -11681,7 +11822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>9721</v>
       </c>
@@ -11710,7 +11851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>9722</v>
       </c>
@@ -11739,7 +11880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>9723</v>
       </c>
@@ -11768,7 +11909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>9724</v>
       </c>
@@ -11797,7 +11938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>9725</v>
       </c>
@@ -11826,7 +11967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>9726</v>
       </c>
@@ -11855,7 +11996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>9727</v>
       </c>
@@ -11884,7 +12025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>9728</v>
       </c>
@@ -11913,7 +12054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>9729</v>
       </c>
@@ -11942,7 +12083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>9730</v>
       </c>
@@ -11971,7 +12112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>9731</v>
       </c>
@@ -12000,7 +12141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>9732</v>
       </c>
@@ -12029,7 +12170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>9733</v>
       </c>
@@ -12058,7 +12199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>9736</v>
       </c>
@@ -12087,7 +12228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>9737</v>
       </c>
@@ -12116,7 +12257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>9738</v>
       </c>
@@ -12145,7 +12286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>9739</v>
       </c>
@@ -12174,7 +12315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>9740</v>
       </c>
@@ -12203,7 +12344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>9741</v>
       </c>
@@ -12232,7 +12373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>9742</v>
       </c>
@@ -12261,7 +12402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>9743</v>
       </c>
@@ -12290,7 +12431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>9744</v>
       </c>
@@ -12319,7 +12460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>9745</v>
       </c>
@@ -12348,7 +12489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>9746</v>
       </c>
@@ -12377,7 +12518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>9747</v>
       </c>
@@ -12406,7 +12547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>9748</v>
       </c>
@@ -12435,7 +12576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>9749</v>
       </c>
@@ -12464,7 +12605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>9750</v>
       </c>
@@ -12493,7 +12634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>9751</v>
       </c>
@@ -12522,7 +12663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>9752</v>
       </c>
@@ -12551,7 +12692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>9753</v>
       </c>
@@ -12580,7 +12721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>9754</v>
       </c>
@@ -12609,7 +12750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>9755</v>
       </c>
@@ -12638,7 +12779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>9756</v>
       </c>
@@ -12667,7 +12808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>9757</v>
       </c>
@@ -12696,7 +12837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>9758</v>
       </c>
@@ -12725,7 +12866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>9759</v>
       </c>
@@ -12754,7 +12895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>9760</v>
       </c>
@@ -12783,7 +12924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>9761</v>
       </c>
@@ -12812,7 +12953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>9762</v>
       </c>
@@ -12841,7 +12982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>9763</v>
       </c>
@@ -12870,7 +13011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>9764</v>
       </c>
@@ -12899,7 +13040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>9765</v>
       </c>
@@ -12928,7 +13069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>9766</v>
       </c>
@@ -12957,7 +13098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>9767</v>
       </c>
@@ -12986,7 +13127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>9768</v>
       </c>
@@ -13015,7 +13156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>9769</v>
       </c>
@@ -13044,7 +13185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>9770</v>
       </c>
@@ -13073,7 +13214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>9771</v>
       </c>
@@ -13102,7 +13243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>9772</v>
       </c>
@@ -13131,7 +13272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>9773</v>
       </c>
@@ -13160,7 +13301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>9774</v>
       </c>
@@ -13189,7 +13330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>9775</v>
       </c>
@@ -13218,7 +13359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>9776</v>
       </c>
@@ -13247,7 +13388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>9777</v>
       </c>
@@ -13276,7 +13417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>9778</v>
       </c>
@@ -13305,7 +13446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>9779</v>
       </c>
@@ -13334,7 +13475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>9780</v>
       </c>
@@ -13363,7 +13504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>9781</v>
       </c>
@@ -13392,7 +13533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>9782</v>
       </c>
@@ -13421,7 +13562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>9783</v>
       </c>
@@ -13450,7 +13591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>9784</v>
       </c>
@@ -13479,7 +13620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>9785</v>
       </c>
@@ -13508,7 +13649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>9786</v>
       </c>
@@ -13537,7 +13678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>9787</v>
       </c>
@@ -13566,7 +13707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>9788</v>
       </c>
@@ -13595,7 +13736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>9789</v>
       </c>
@@ -13624,7 +13765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>9790</v>
       </c>
@@ -13653,7 +13794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>9791</v>
       </c>
@@ -13682,7 +13823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>9792</v>
       </c>
@@ -13711,7 +13852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>9793</v>
       </c>
@@ -13740,7 +13881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>9794</v>
       </c>
@@ -13769,7 +13910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>9795</v>
       </c>
@@ -13798,7 +13939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>9796</v>
       </c>
@@ -13827,7 +13968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>9797</v>
       </c>
@@ -13856,7 +13997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>9798</v>
       </c>
@@ -13885,7 +14026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>9799</v>
       </c>
@@ -13914,7 +14055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>9800</v>
       </c>
@@ -13943,7 +14084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>9801</v>
       </c>
@@ -13972,7 +14113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>9802</v>
       </c>
@@ -14001,7 +14142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>9803</v>
       </c>
@@ -14030,7 +14171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>9804</v>
       </c>
@@ -14059,7 +14200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>9805</v>
       </c>
@@ -14088,7 +14229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>9806</v>
       </c>
@@ -14117,7 +14258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>9807</v>
       </c>
@@ -14146,7 +14287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>9808</v>
       </c>
@@ -14175,7 +14316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>9809</v>
       </c>
@@ -14204,7 +14345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>9810</v>
       </c>
@@ -14233,7 +14374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>9811</v>
       </c>
@@ -14262,7 +14403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>9812</v>
       </c>
@@ -14291,7 +14432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>9813</v>
       </c>
@@ -14320,7 +14461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>9814</v>
       </c>
@@ -14349,7 +14490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>9815</v>
       </c>
@@ -14378,7 +14519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>9816</v>
       </c>
@@ -14407,7 +14548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>9817</v>
       </c>
@@ -14436,7 +14577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>9818</v>
       </c>
@@ -14465,7 +14606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>9819</v>
       </c>
@@ -14494,7 +14635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>9820</v>
       </c>
@@ -14523,7 +14664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>9821</v>
       </c>
@@ -14552,7 +14693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>9822</v>
       </c>
@@ -14581,7 +14722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>9823</v>
       </c>
@@ -14610,7 +14751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>9824</v>
       </c>
@@ -14639,7 +14780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>9825</v>
       </c>
@@ -14668,7 +14809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>9826</v>
       </c>
@@ -14710,18 +14851,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>289</v>
       </c>
@@ -14732,124 +14873,124 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="18">
         <v>57</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="18">
         <v>678</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="18">
         <v>58</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="18">
         <v>679</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="18">
         <v>59</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="18">
         <v>680</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <v>60</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>681</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <v>61</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>682</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <v>62</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>683</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <v>63</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>684</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <v>64</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <v>685</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <v>65</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>686</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <v>66</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="18">
         <v>687</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <v>39</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="18">
         <v>660</v>
       </c>
     </row>
@@ -14867,13 +15008,13 @@
       <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>11</v>
       </c>
@@ -14884,7 +15025,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -14895,7 +15036,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -14906,7 +15047,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="47">
         <v>3</v>
       </c>
@@ -14917,7 +15058,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -14928,7 +15069,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -14939,7 +15080,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -14950,7 +15091,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -14977,7 +15118,7 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14991,14 +15132,14 @@
       <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="97.5546875" customWidth="1"/>
-    <col min="4" max="4" width="52.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="97.5703125" customWidth="1"/>
+    <col min="4" max="4" width="52.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -15009,7 +15150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>57</v>
       </c>
@@ -15024,7 +15165,7 @@
         <v>4111306_Construction of Irrigation Inlet (New Haors)</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>58</v>
       </c>
@@ -15039,7 +15180,7 @@
         <v>4111307_ Re-installation/Construction of Regulator/ Causeway (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>59</v>
       </c>
@@ -15054,7 +15195,7 @@
         <v>4111307_ Installation/Construction of New Regulators/ Causeway/Bridge/Box Drainage Outlet) (New Haors)</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>60</v>
       </c>
@@ -15069,7 +15210,7 @@
         <v xml:space="preserve">4111307_ Re-excavation of Khal/River (New Haors) </v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>61</v>
       </c>
@@ -15084,7 +15225,7 @@
         <v xml:space="preserve">4111201_ Re-excavation of Khal/River (Rehabilitation Sub-Projects) </v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>62</v>
       </c>
@@ -15099,7 +15240,7 @@
         <v>4111201_ Rehabilitation of Full Embankment (Resection/ construction) (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>63</v>
       </c>
@@ -15114,7 +15255,7 @@
         <v>4111201_ Rehabilitation of Submergible Embankment  (Resection/construction)  (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>64</v>
       </c>
@@ -15129,7 +15270,7 @@
         <v>4111201_Construction of Submersible Embankment (New Haors) (Earth Volume: 29.98 lakh cum)</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>65</v>
       </c>
@@ -15144,7 +15285,7 @@
         <v>4111201_ Rehabilitation of Regulator (New Haors)</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>66</v>
       </c>
@@ -15159,7 +15300,7 @@
         <v>4111201_Construction of WMG Office</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>67</v>
       </c>
@@ -15190,26 +15331,26 @@
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="16" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" customWidth="1"/>
-    <col min="13" max="13" width="25.109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="26.33203125" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" customWidth="1"/>
-    <col min="21" max="21" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="5">
         <v>7146.0320000000002</v>
       </c>
@@ -15225,7 +15366,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
         <v>2175338.3840000001</v>
       </c>
@@ -15251,7 +15392,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>442686.37599999999</v>
       </c>
@@ -15275,7 +15416,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>25927.940999999999</v>
       </c>
@@ -15302,7 +15443,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -15337,7 +15478,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5">
         <v>769684.61699999997</v>
@@ -15362,7 +15503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>776580.14399999997</v>
       </c>
@@ -15386,7 +15527,7 @@
         <v>12285185.104948564</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <f>SUM(C1:C7)</f>
         <v>2491596.338</v>
@@ -15410,7 +15551,7 @@
         <v>901800.89505143708</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E9" s="5">
         <f>B6+C8</f>
         <v>2491596.338</v>
@@ -15432,12 +15573,12 @@
         <v>15070841</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L13" s="3" t="s">
         <v>29</v>
       </c>
@@ -15454,7 +15595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L14" s="8">
         <v>5478066.2400000002</v>
       </c>
@@ -15480,7 +15621,7 @@
         <v>4313977.0977821741</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L15" s="8"/>
       <c r="M15" s="5">
         <v>315745.96999999997</v>
@@ -15505,7 +15646,7 @@
         <v>5197670.9022178268</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
         <v>14</v>
       </c>
@@ -15531,7 +15672,7 @@
       </c>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
         <v>30</v>
       </c>
@@ -15541,18 +15682,18 @@
         <v>12078283.359999999</v>
       </c>
     </row>
-    <row r="18" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L20" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L21" s="3" t="s">
         <v>29</v>
       </c>
@@ -15569,7 +15710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L22" s="3">
         <v>5478066.2400000002</v>
       </c>
@@ -15594,7 +15735,7 @@
         <v>479330.43588387553</v>
       </c>
     </row>
-    <row r="23" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L23" s="3"/>
       <c r="M23" s="3">
         <v>315745.96999999997</v>
@@ -15617,7 +15758,7 @@
         <v>577518.56411612465</v>
       </c>
     </row>
-    <row r="24" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
         <v>14</v>
       </c>
@@ -15643,7 +15784,7 @@
         <v>1207828.0000000002</v>
       </c>
     </row>
-    <row r="25" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K25" t="s">
         <v>30</v>
       </c>
@@ -15651,12 +15792,12 @@
         <v>12078283.359999999</v>
       </c>
     </row>
-    <row r="35" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N36" t="s">
         <v>29</v>
       </c>
@@ -15664,7 +15805,7 @@
         <v>5923319.2699999996</v>
       </c>
     </row>
-    <row r="37" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N37" t="s">
         <v>33</v>
       </c>
@@ -15672,7 +15813,7 @@
         <v>317931.49</v>
       </c>
     </row>
-    <row r="38" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N38" t="s">
         <v>14</v>
       </c>
@@ -15690,7 +15831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N39" t="s">
         <v>34</v>
       </c>
@@ -15717,7 +15858,7 @@
         <v>5386258.0510686319</v>
       </c>
     </row>
-    <row r="40" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N40" t="s">
         <v>35</v>
       </c>
@@ -15744,7 +15885,7 @@
         <v>6037755.4941627374</v>
       </c>
     </row>
-    <row r="41" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N41" t="s">
         <v>36</v>
       </c>
@@ -15771,7 +15912,7 @@
         <v>4823437.4547686297</v>
       </c>
     </row>
-    <row r="42" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N42" t="s">
         <v>37</v>
       </c>
@@ -15795,7 +15936,7 @@
         <v>16247450.999999998</v>
       </c>
     </row>
-    <row r="43" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N43" t="s">
         <v>14</v>
       </c>
@@ -15804,7 +15945,7 @@
         <v>12585254.568999998</v>
       </c>
     </row>
-    <row r="44" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N44" t="s">
         <v>30</v>
       </c>
@@ -15813,7 +15954,7 @@
         <v>18826505.328999996</v>
       </c>
     </row>
-    <row r="48" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N48" t="s">
         <v>41</v>
       </c>
@@ -15821,7 +15962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N49" t="s">
         <v>42</v>
       </c>
@@ -15841,7 +15982,7 @@
         <v>4142488.1873903489</v>
       </c>
     </row>
-    <row r="50" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N50" t="s">
         <v>43</v>
       </c>
@@ -15861,7 +16002,7 @@
         <v>3815450.8126096507</v>
       </c>
     </row>
-    <row r="51" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="14:20" x14ac:dyDescent="0.25">
       <c r="O51" s="3">
         <f>SUM(O49:O50)</f>
         <v>9094786.5099999998</v>
@@ -15883,7 +16024,7 @@
         <v>9094787</v>
       </c>
     </row>
-    <row r="54" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N54" t="s">
         <v>44</v>
       </c>
@@ -15891,7 +16032,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N55" t="s">
         <v>42</v>
       </c>
@@ -15908,7 +16049,7 @@
         <v>4142488.1873903489</v>
       </c>
     </row>
-    <row r="56" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N56" t="s">
         <v>43</v>
       </c>
@@ -15925,7 +16066,7 @@
         <v>3815450.8126096507</v>
       </c>
     </row>
-    <row r="57" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="14:20" x14ac:dyDescent="0.25">
       <c r="P57">
         <v>1</v>
       </c>
@@ -15939,7 +16080,7 @@
         <v>9094787</v>
       </c>
     </row>
-    <row r="58" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N58" t="s">
         <v>45</v>
       </c>
@@ -15953,7 +16094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N59" t="s">
         <v>18</v>
       </c>
@@ -15980,7 +16121,7 @@
         <v>4989638.1726636579</v>
       </c>
     </row>
-    <row r="60" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N60" t="s">
         <v>43</v>
       </c>
@@ -16007,7 +16148,7 @@
         <v>5464314.8273363421</v>
       </c>
     </row>
-    <row r="61" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N61" t="s">
         <v>46</v>
       </c>
@@ -16027,7 +16168,7 @@
         <v>10453953</v>
       </c>
     </row>
-    <row r="62" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N62" t="s">
         <v>43</v>
       </c>
@@ -16036,13 +16177,13 @@
         <v>6244931.3999999994</v>
       </c>
     </row>
-    <row r="63" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="14:20" x14ac:dyDescent="0.25">
       <c r="O63" s="3">
         <f>SUM(O59,O62)</f>
         <v>11947375.18</v>
       </c>
     </row>
-    <row r="65" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N65" t="s">
         <v>47</v>
       </c>
@@ -16056,7 +16197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N66" t="s">
         <v>38</v>
       </c>
@@ -16079,7 +16220,7 @@
         <v>4989638.1726636579</v>
       </c>
     </row>
-    <row r="67" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N67" t="s">
         <v>43</v>
       </c>
@@ -16100,7 +16241,7 @@
         <v>5464314.8273363421</v>
       </c>
     </row>
-    <row r="68" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N68" t="s">
         <v>46</v>
       </c>
@@ -16117,7 +16258,7 @@
         <v>10453953</v>
       </c>
     </row>
-    <row r="69" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N69" t="s">
         <v>43</v>
       </c>
@@ -16125,7 +16266,7 @@
         <v>6244931.3999999994</v>
       </c>
     </row>
-    <row r="70" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="14:20" x14ac:dyDescent="0.25">
       <c r="O70" s="5">
         <v>11947375.18</v>
       </c>
@@ -16143,21 +16284,21 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" customWidth="1"/>
-    <col min="4" max="4" width="3.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
@@ -16165,7 +16306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G3" s="1">
         <v>17644936.100000001</v>
       </c>
@@ -16173,7 +16314,7 @@
         <v>204301.34</v>
       </c>
     </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G4" s="1">
         <v>-166123.07999999999</v>
       </c>
@@ -16181,7 +16322,7 @@
         <v>98414.79</v>
       </c>
     </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G5" s="1">
         <v>4900152.0999999996</v>
       </c>
@@ -16189,7 +16330,7 @@
         <v>3557905.85</v>
       </c>
     </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G6" s="1">
         <v>286245</v>
       </c>
@@ -16197,7 +16338,7 @@
         <v>866744.93</v>
       </c>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G7" s="1">
         <v>619378.32999999996</v>
       </c>
@@ -16205,7 +16346,7 @@
         <v>161285.35999999999</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G8" s="5">
         <f>SUM(G3:G7)</f>
         <v>23284588.450000003</v>
@@ -16214,7 +16355,7 @@
         <v>15775.98</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G9" s="5">
         <v>28737182.920000002</v>
       </c>
@@ -16222,7 +16363,7 @@
         <v>14288.02</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G10" s="5">
         <f>G9-G8</f>
         <v>5452594.4699999988</v>
@@ -16231,13 +16372,13 @@
         <v>53423.24</v>
       </c>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I11" s="5">
         <f>SUM(I3:I10)</f>
         <v>4972139.5100000007</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
@@ -16245,7 +16386,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E15" s="1">
         <v>875966.73300000001</v>
       </c>
@@ -16253,7 +16394,7 @@
         <v>46900.13</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E16" s="1">
         <v>906433.66399999999</v>
       </c>
@@ -16261,7 +16402,7 @@
         <v>2590080.1800000002</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E17" s="1">
         <f>SUM(E15:E16)</f>
         <v>1782400.3969999999</v>
@@ -16270,7 +16411,7 @@
         <v>1949709.13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E18" s="1">
         <v>7172327.3300000001</v>
       </c>
@@ -16278,7 +16419,7 @@
         <v>1366206.83</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E19" s="5">
         <f>E18-E17</f>
         <v>5389926.9330000002</v>
@@ -16287,23 +16428,23 @@
         <v>739134.85</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G20" s="1">
         <v>379009.28000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G21" s="1">
         <v>600581.69999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G22" s="1">
         <f>SUM(G15:G21)</f>
         <v>7671622.0999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>62</v>
       </c>
@@ -16344,16 +16485,16 @@
       <selection activeCell="A2" sqref="A2:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>60</v>
       </c>
@@ -16381,7 +16522,7 @@
         <v>4232587</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>61</v>
       </c>
@@ -16405,7 +16546,7 @@
         <v>8992806</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>62</v>
       </c>
@@ -16433,7 +16574,7 @@
         <v>5502837.0250000004</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>63</v>
       </c>
@@ -16461,7 +16602,7 @@
         <v>3191592</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>64</v>
       </c>
@@ -16487,7 +16628,7 @@
         <v>6275786</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>65</v>
       </c>
@@ -16511,7 +16652,7 @@
         <v>3061893</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>66</v>
       </c>
@@ -16535,7 +16676,7 @@
         <v>18223550</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>67</v>
       </c>
@@ -16559,7 +16700,7 @@
         <v>3211140</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>68</v>
       </c>
@@ -16590,160 +16731,150 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" customWidth="1"/>
-    <col min="16" max="16" width="16.44140625" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
-    <col min="18" max="19" width="9.109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="21" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="65" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="61">
+    <row r="2" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>571</v>
-      </c>
-      <c r="C2" s="63">
-        <v>0</v>
-      </c>
-      <c r="D2" s="63">
-        <v>0</v>
-      </c>
-      <c r="E2" s="63">
-        <v>0</v>
-      </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63">
+      <c r="B2" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15">
         <v>9871121</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15">
         <v>1085823</v>
       </c>
-      <c r="P2" s="63">
+      <c r="P2" s="15">
         <v>8785298</v>
       </c>
-      <c r="Q2" s="63" t="s">
+      <c r="Q2" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="R2" s="63">
-        <v>2</v>
-      </c>
-      <c r="S2" s="63">
-        <v>2</v>
-      </c>
-      <c r="T2" s="65">
+      <c r="R2" s="15">
+        <v>1</v>
+      </c>
+      <c r="S2" s="15">
+        <v>2</v>
+      </c>
+      <c r="T2" s="62">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="C3" s="63">
-        <v>0</v>
-      </c>
-      <c r="D3" s="63">
-        <v>0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="15">
         <v>9485898</v>
       </c>
@@ -16759,13 +16890,13 @@
         <v>1138308</v>
       </c>
       <c r="P3" s="15">
-        <v>8442449</v>
+        <v>8347590</v>
       </c>
       <c r="Q3" s="15" t="s">
         <v>117</v>
       </c>
       <c r="R3" s="15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S3" s="15">
         <v>3</v>
@@ -16774,39 +16905,37 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="C4" s="63">
-        <v>0</v>
-      </c>
-      <c r="D4" s="63">
-        <v>0</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="15">
-        <v>14978253</v>
+        <v>9868708.6000000015</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="J4" s="15">
+        <v>5109544.3999999994</v>
+      </c>
       <c r="K4" s="15"/>
       <c r="L4" s="44"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15">
-        <v>888885.20880000002</v>
+        <v>1787580.2087999999</v>
       </c>
       <c r="P4" s="15">
-        <v>13108924.531199999</v>
+        <v>13108925.361199999</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>572</v>
+        <v>114</v>
       </c>
       <c r="R4" s="15">
         <v>2</v>
@@ -16818,22 +16947,16 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="C5" s="63">
-        <v>0</v>
-      </c>
-      <c r="D5" s="63">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>14259856</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -16844,105 +16967,95 @@
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15">
-        <v>1801319.6532000001</v>
+        <v>360000</v>
       </c>
       <c r="P5" s="15">
-        <v>12021358.456800001</v>
+        <v>2640000</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>121</v>
+        <v>588</v>
       </c>
       <c r="R5" s="15">
         <v>1</v>
       </c>
       <c r="S5" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T5" s="62">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="C6" s="63">
-        <v>0</v>
-      </c>
-      <c r="D6" s="63">
-        <v>0</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="15">
-        <v>0</v>
+        <v>2111691.5700000003</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15">
-        <v>4144654</v>
+        <v>12148164.43</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="44"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15">
-        <v>497358</v>
+        <v>1801319.9332000001</v>
       </c>
       <c r="P6" s="15">
-        <v>3647296</v>
+        <v>12021358.176800001</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R6" s="15">
         <v>1</v>
       </c>
       <c r="S6" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6" s="62">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="C7" s="63">
-        <v>0</v>
-      </c>
-      <c r="D7" s="63">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15">
-        <v>9280540</v>
+        <v>4144654</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="44"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15">
-        <v>1113665</v>
+        <v>497358</v>
       </c>
       <c r="P7" s="15">
-        <v>8166875</v>
+        <v>3647296</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="R7" s="15">
         <v>1</v>
@@ -16951,44 +17064,40 @@
         <v>5</v>
       </c>
       <c r="T7" s="62">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="C8" s="63">
-        <v>0</v>
-      </c>
-      <c r="D8" s="63">
-        <v>0</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="15">
-        <v>4132973.5</v>
-      </c>
-      <c r="F8" s="15">
-        <v>6195366.8830000004</v>
-      </c>
+        <v>6397963.3899999997</v>
+      </c>
+      <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="J8" s="15">
+        <v>2882576.6100000003</v>
+      </c>
       <c r="K8" s="15"/>
       <c r="L8" s="44"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15">
-        <v>1239401</v>
+        <v>1113665</v>
       </c>
       <c r="P8" s="15">
-        <v>9088939</v>
+        <v>8166875</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R8" s="15">
         <v>1</v>
@@ -16997,90 +17106,80 @@
         <v>5</v>
       </c>
       <c r="T8" s="62">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="C9" s="63">
-        <v>0</v>
-      </c>
-      <c r="D9" s="63">
-        <v>0</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15"/>
+        <v>4132973.5</v>
+      </c>
+      <c r="F9" s="15">
+        <v>6195366.8830000004</v>
+      </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="15">
-        <v>2555298.56</v>
-      </c>
+      <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="44"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15">
-        <v>332188.81</v>
+        <v>1239401</v>
       </c>
       <c r="P9" s="15">
-        <v>2223109.7400000002</v>
+        <v>9088939</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="R9" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T9" s="62">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="C10" s="63">
-        <v>0</v>
-      </c>
-      <c r="D10" s="63">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15">
-        <v>967951</v>
+        <v>4262665.3499999996</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="44"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15">
-        <v>116154</v>
+        <v>468893.18</v>
       </c>
       <c r="P10" s="15">
-        <v>851797</v>
+        <v>3793772.16</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="R10" s="15">
         <v>2</v>
@@ -17089,54 +17188,211 @@
         <v>6</v>
       </c>
       <c r="T10" s="62">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>11</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>594</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="18">
+        <v>12499297</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18">
+        <v>1624908.62</v>
+      </c>
+      <c r="P11" s="18">
+        <v>10874388.380000001</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="R11" s="18">
+        <v>1</v>
+      </c>
+      <c r="S11" s="18">
+        <v>6</v>
+      </c>
+      <c r="T11" s="18">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>12</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18">
+        <v>2555298.56</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18">
+        <v>332188.80000000005</v>
+      </c>
+      <c r="P12" s="18">
+        <v>2223109.7599999998</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="R12" s="18">
+        <v>2</v>
+      </c>
+      <c r="S12" s="18">
+        <v>6</v>
+      </c>
+      <c r="T12" s="18">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>13</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>596</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18">
+        <v>967951</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="18">
+        <v>116154</v>
+      </c>
+      <c r="P13" s="18">
+        <v>851797</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="R13" s="18">
+        <v>2</v>
+      </c>
+      <c r="S13" s="18">
+        <v>6</v>
+      </c>
+      <c r="T13" s="18">
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
-        <v>12</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>14</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="18">
         <v>2963861</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15">
-        <v>2323597</v>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15">
+      <c r="F14" s="18"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="18">
+        <v>4026070.8800000004</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="18">
         <v>556858.13199999998</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P14" s="18">
         <v>4083625.9679999999</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="Q14" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R14" s="18">
         <v>1</v>
       </c>
-      <c r="S11" s="15">
+      <c r="S14" s="18">
         <v>6</v>
       </c>
-      <c r="T11" s="62">
+      <c r="T14" s="18">
         <v>242</v>
       </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>15</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="18">
+        <v>356392</v>
+      </c>
+      <c r="P15" s="18">
+        <v>2613539</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="R15" s="18">
+        <v>1</v>
+      </c>
+      <c r="S15" s="18">
+        <v>6</v>
+      </c>
+      <c r="T15" s="18">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17146,30 +17402,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" customWidth="1"/>
-    <col min="16" max="16" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="21" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="18" max="19" width="8.88671875" style="1"/>
+    <col min="18" max="19" width="8.85546875" style="1"/>
     <col min="20" max="20" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>70</v>
       </c>
@@ -17231,7 +17487,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -17262,7 +17518,7 @@
         <v>572</v>
       </c>
       <c r="R2" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S2" s="18">
         <v>2</v>
@@ -17271,9 +17527,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>573</v>
@@ -17295,14 +17551,14 @@
       <c r="O3" s="18">
         <v>0</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="67">
         <v>0</v>
       </c>
       <c r="Q3" s="18" t="s">
         <v>117</v>
       </c>
       <c r="R3" s="18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S3" s="18">
         <v>3</v>
@@ -17311,12 +17567,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -17335,11 +17591,11 @@
       <c r="O4" s="18">
         <v>9809.7911999999997</v>
       </c>
-      <c r="P4" s="67">
+      <c r="P4" s="18">
         <v>71938.468800000002</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>572</v>
+        <v>114</v>
       </c>
       <c r="R4" s="18">
         <v>2</v>
@@ -17351,12 +17607,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -17370,33 +17626,29 @@
       <c r="L5" s="20"/>
       <c r="M5" s="18"/>
       <c r="N5" s="66">
-        <v>437177.89</v>
-      </c>
-      <c r="O5" s="18">
-        <v>52461.346799999999</v>
-      </c>
-      <c r="P5" s="18">
-        <v>384716.54320000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
       <c r="Q5" s="18" t="s">
-        <v>121</v>
+        <v>588</v>
       </c>
       <c r="R5" s="18">
         <v>1</v>
       </c>
       <c r="S5" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T5" s="18">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -17410,33 +17662,33 @@
       <c r="L6" s="20"/>
       <c r="M6" s="18"/>
       <c r="N6" s="66">
-        <v>0</v>
+        <v>437177.89</v>
       </c>
       <c r="O6" s="18">
-        <v>0</v>
+        <v>52461.346799999999</v>
       </c>
       <c r="P6" s="18">
-        <v>0</v>
+        <v>384716.54320000001</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R6" s="18">
         <v>1</v>
       </c>
       <c r="S6" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6" s="18">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -17459,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="R7" s="18">
         <v>1</v>
@@ -17468,15 +17720,15 @@
         <v>5</v>
       </c>
       <c r="T7" s="18">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -17499,7 +17751,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="R8" s="18">
         <v>1</v>
@@ -17508,15 +17760,15 @@
         <v>5</v>
       </c>
       <c r="T8" s="18">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -17539,24 +17791,24 @@
         <v>0</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="R9" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T9" s="18">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -17579,7 +17831,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="R10" s="18">
         <v>2</v>
@@ -17588,15 +17840,15 @@
         <v>6</v>
       </c>
       <c r="T10" s="18">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -17610,16 +17862,16 @@
       <c r="L11" s="20"/>
       <c r="M11" s="18"/>
       <c r="N11" s="66">
-        <v>646973.9</v>
+        <v>0</v>
       </c>
       <c r="O11" s="18">
-        <v>77636.868000000002</v>
+        <v>0</v>
       </c>
       <c r="P11" s="18">
-        <v>569337.03200000001</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R11" s="18">
         <v>1</v>
@@ -17628,52 +17880,168 @@
         <v>6</v>
       </c>
       <c r="T11" s="18">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>12</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="66">
+        <v>0</v>
+      </c>
+      <c r="O12" s="18">
+        <v>0</v>
+      </c>
+      <c r="P12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="R12" s="18">
+        <v>2</v>
+      </c>
+      <c r="S12" s="18">
+        <v>6</v>
+      </c>
+      <c r="T12" s="18">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>13</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="66">
+        <v>0</v>
+      </c>
+      <c r="O13" s="18">
+        <v>0</v>
+      </c>
+      <c r="P13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="R13" s="18">
+        <v>2</v>
+      </c>
+      <c r="S13" s="18">
+        <v>6</v>
+      </c>
+      <c r="T13" s="18">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>14</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>581</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="66">
+        <v>646973.9</v>
+      </c>
+      <c r="O14" s="18">
+        <v>77636.868000000002</v>
+      </c>
+      <c r="P14" s="18">
+        <v>569337.03200000001</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="R14" s="18">
+        <v>1</v>
+      </c>
+      <c r="S14" s="18">
+        <v>6</v>
+      </c>
+      <c r="T14" s="18">
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>15</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="66">
+        <v>0</v>
+      </c>
+      <c r="O15" s="18">
+        <v>0</v>
+      </c>
+      <c r="P15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="R15" s="18">
+        <v>1</v>
+      </c>
+      <c r="S15" s="18">
+        <v>6</v>
+      </c>
+      <c r="T15" s="18">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17685,34 +18053,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="21" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
     <col min="14" max="14" width="12" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" customWidth="1"/>
-    <col min="16" max="16" width="16.44140625" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
-    <col min="18" max="20" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
+    <col min="18" max="20" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>70</v>
       </c>
@@ -17772,7 +18140,7 @@
       </c>
       <c r="T1" s="23"/>
     </row>
-    <row r="2" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -17812,7 +18180,7 @@
       </c>
       <c r="T2" s="43"/>
     </row>
-    <row r="3" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -17856,7 +18224,7 @@
       </c>
       <c r="T3" s="43"/>
     </row>
-    <row r="4" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -17898,7 +18266,7 @@
       </c>
       <c r="T4" s="43"/>
     </row>
-    <row r="5" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -17942,7 +18310,7 @@
       </c>
       <c r="T5" s="43"/>
     </row>
-    <row r="6" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -17988,7 +18356,7 @@
       </c>
       <c r="T6" s="43"/>
     </row>
-    <row r="7" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -18032,7 +18400,7 @@
       </c>
       <c r="T7" s="43"/>
     </row>
-    <row r="8" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -18074,7 +18442,7 @@
       </c>
       <c r="T8" s="43"/>
     </row>
-    <row r="9" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -18118,7 +18486,7 @@
       </c>
       <c r="T9" s="43"/>
     </row>
-    <row r="10" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -18160,7 +18528,7 @@
       </c>
       <c r="T10" s="43"/>
     </row>
-    <row r="11" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -18202,7 +18570,7 @@
       </c>
       <c r="T11" s="43"/>
     </row>
-    <row r="12" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -18246,7 +18614,7 @@
       </c>
       <c r="T12" s="43"/>
     </row>
-    <row r="13" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -18288,7 +18656,7 @@
       </c>
       <c r="T13" s="43"/>
     </row>
-    <row r="14" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -18330,7 +18698,7 @@
       </c>
       <c r="T14" s="43"/>
     </row>
-    <row r="15" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -18372,7 +18740,7 @@
       </c>
       <c r="T15" s="43"/>
     </row>
-    <row r="16" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -18414,7 +18782,7 @@
       </c>
       <c r="T16" s="43"/>
     </row>
-    <row r="17" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -18456,7 +18824,7 @@
       </c>
       <c r="T17" s="43"/>
     </row>
-    <row r="18" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -18498,7 +18866,7 @@
       </c>
       <c r="T18" s="43"/>
     </row>
-    <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -18540,7 +18908,7 @@
       </c>
       <c r="T19" s="43"/>
     </row>
-    <row r="20" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <v>19</v>
       </c>
@@ -18582,7 +18950,7 @@
       </c>
       <c r="T20" s="43"/>
     </row>
-    <row r="21" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -18624,7 +18992,7 @@
       </c>
       <c r="T21" s="43"/>
     </row>
-    <row r="22" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -18666,7 +19034,7 @@
       </c>
       <c r="T22" s="43"/>
     </row>
-    <row r="23" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -18708,7 +19076,7 @@
       </c>
       <c r="T23" s="43"/>
     </row>
-    <row r="24" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -18752,7 +19120,7 @@
       </c>
       <c r="T24" s="43"/>
     </row>
-    <row r="25" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>24</v>
       </c>
@@ -18794,7 +19162,7 @@
       </c>
       <c r="T25" s="43"/>
     </row>
-    <row r="26" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>25</v>
       </c>
@@ -18836,7 +19204,7 @@
       </c>
       <c r="T26" s="43"/>
     </row>
-    <row r="27" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>26</v>
       </c>
@@ -18878,7 +19246,7 @@
       </c>
       <c r="T27" s="43"/>
     </row>
-    <row r="28" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -18920,7 +19288,7 @@
       </c>
       <c r="T28" s="43"/>
     </row>
-    <row r="29" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>28</v>
       </c>
@@ -18962,7 +19330,7 @@
       </c>
       <c r="T29" s="43"/>
     </row>
-    <row r="30" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -19004,7 +19372,7 @@
       </c>
       <c r="T30" s="43"/>
     </row>
-    <row r="31" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>30</v>
       </c>
@@ -19046,7 +19414,7 @@
       </c>
       <c r="T31" s="43"/>
     </row>
-    <row r="32" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>31</v>
       </c>
@@ -19088,7 +19456,7 @@
       </c>
       <c r="T32" s="43"/>
     </row>
-    <row r="33" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>32</v>
       </c>
@@ -19130,7 +19498,7 @@
       </c>
       <c r="T33" s="43"/>
     </row>
-    <row r="34" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>33</v>
       </c>
@@ -19172,7 +19540,7 @@
       </c>
       <c r="T34" s="43"/>
     </row>
-    <row r="35" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>34</v>
       </c>
@@ -19214,7 +19582,7 @@
       </c>
       <c r="T35" s="43"/>
     </row>
-    <row r="36" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -19256,7 +19624,7 @@
       </c>
       <c r="T36" s="43"/>
     </row>
-    <row r="37" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>36</v>
       </c>
@@ -19298,7 +19666,7 @@
       </c>
       <c r="T37" s="43"/>
     </row>
-    <row r="38" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>37</v>
       </c>
@@ -19340,7 +19708,7 @@
       </c>
       <c r="T38" s="43"/>
     </row>
-    <row r="39" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>38</v>
       </c>
@@ -19382,7 +19750,7 @@
       </c>
       <c r="T39" s="43"/>
     </row>
-    <row r="40" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>39</v>
       </c>
@@ -19424,7 +19792,7 @@
       </c>
       <c r="T40" s="43"/>
     </row>
-    <row r="41" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>40</v>
       </c>
@@ -19466,7 +19834,7 @@
       </c>
       <c r="T41" s="43"/>
     </row>
-    <row r="42" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>41</v>
       </c>
@@ -19510,7 +19878,7 @@
       </c>
       <c r="T42" s="43"/>
     </row>
-    <row r="43" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>42</v>
       </c>
@@ -19552,7 +19920,7 @@
       </c>
       <c r="T43" s="43"/>
     </row>
-    <row r="44" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>43</v>
       </c>
@@ -19594,7 +19962,7 @@
       </c>
       <c r="T44" s="43"/>
     </row>
-    <row r="45" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>44</v>
       </c>
@@ -19636,7 +20004,7 @@
       </c>
       <c r="T45" s="43"/>
     </row>
-    <row r="46" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>45</v>
       </c>
@@ -19678,7 +20046,7 @@
       </c>
       <c r="T46" s="43"/>
     </row>
-    <row r="47" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>46</v>
       </c>
@@ -19722,7 +20090,7 @@
       </c>
       <c r="T47" s="43"/>
     </row>
-    <row r="48" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>47</v>
       </c>
@@ -19764,7 +20132,7 @@
       </c>
       <c r="T48" s="43"/>
     </row>
-    <row r="49" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>48</v>
       </c>
@@ -19806,7 +20174,7 @@
       </c>
       <c r="T49" s="43"/>
     </row>
-    <row r="50" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>49</v>
       </c>
@@ -19850,7 +20218,7 @@
       </c>
       <c r="T50" s="43"/>
     </row>
-    <row r="51" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>50</v>
       </c>
@@ -19892,7 +20260,7 @@
       </c>
       <c r="T51" s="43"/>
     </row>
-    <row r="52" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>51</v>
       </c>
@@ -19934,7 +20302,7 @@
       </c>
       <c r="T52" s="43"/>
     </row>
-    <row r="53" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -19978,7 +20346,7 @@
       </c>
       <c r="T53" s="43"/>
     </row>
-    <row r="54" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>53</v>
       </c>
@@ -20020,7 +20388,7 @@
       </c>
       <c r="T54" s="43"/>
     </row>
-    <row r="55" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>54</v>
       </c>
@@ -20062,7 +20430,7 @@
       </c>
       <c r="T55" s="43"/>
     </row>
-    <row r="56" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>55</v>
       </c>
@@ -20106,7 +20474,7 @@
       </c>
       <c r="T56" s="43"/>
     </row>
-    <row r="57" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>56</v>
       </c>
@@ -20150,7 +20518,7 @@
       </c>
       <c r="T57" s="43"/>
     </row>
-    <row r="58" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>57</v>
       </c>
@@ -20192,7 +20560,7 @@
       </c>
       <c r="T58" s="43"/>
     </row>
-    <row r="59" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>58</v>
       </c>
@@ -20236,7 +20604,7 @@
       </c>
       <c r="T59" s="43"/>
     </row>
-    <row r="60" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>59</v>
       </c>
@@ -20278,7 +20646,7 @@
       </c>
       <c r="T60" s="43"/>
     </row>
-    <row r="61" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>60</v>
       </c>
@@ -20322,7 +20690,7 @@
       </c>
       <c r="T61" s="43"/>
     </row>
-    <row r="62" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>61</v>
       </c>
@@ -20364,7 +20732,7 @@
       </c>
       <c r="T62" s="43"/>
     </row>
-    <row r="63" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>62</v>
       </c>
@@ -20406,7 +20774,7 @@
       </c>
       <c r="T63" s="43"/>
     </row>
-    <row r="64" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>63</v>
       </c>
@@ -20448,7 +20816,7 @@
       </c>
       <c r="T64" s="43"/>
     </row>
-    <row r="65" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
         <v>65</v>
       </c>
@@ -20490,7 +20858,7 @@
       </c>
       <c r="T65" s="43"/>
     </row>
-    <row r="66" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20">
         <v>66</v>
       </c>
@@ -20532,7 +20900,7 @@
       </c>
       <c r="T66" s="43"/>
     </row>
-    <row r="67" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
         <v>67</v>
       </c>
@@ -20574,7 +20942,7 @@
       </c>
       <c r="T67" s="43"/>
     </row>
-    <row r="68" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>68</v>
       </c>
@@ -20616,7 +20984,7 @@
       </c>
       <c r="T68" s="43"/>
     </row>
-    <row r="69" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>69</v>
       </c>
@@ -20658,7 +21026,7 @@
       </c>
       <c r="T69" s="43"/>
     </row>
-    <row r="70" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20">
         <v>70</v>
       </c>
@@ -20700,7 +21068,7 @@
       </c>
       <c r="T70" s="43"/>
     </row>
-    <row r="71" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>71</v>
       </c>
@@ -20742,7 +21110,7 @@
       </c>
       <c r="T71" s="43"/>
     </row>
-    <row r="72" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
         <v>72</v>
       </c>
@@ -20784,7 +21152,7 @@
       </c>
       <c r="T72" s="43"/>
     </row>
-    <row r="73" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>73</v>
       </c>
@@ -20826,7 +21194,7 @@
       </c>
       <c r="T73" s="43"/>
     </row>
-    <row r="74" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
         <v>74</v>
       </c>
@@ -20868,7 +21236,7 @@
       </c>
       <c r="T74" s="43"/>
     </row>
-    <row r="75" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="20">
         <v>75</v>
       </c>
@@ -20910,7 +21278,7 @@
       </c>
       <c r="T75" s="43"/>
     </row>
-    <row r="76" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="20">
         <v>79</v>
       </c>
@@ -20952,7 +21320,7 @@
       </c>
       <c r="T76" s="43"/>
     </row>
-    <row r="77" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>80</v>
       </c>
@@ -20996,7 +21364,7 @@
       </c>
       <c r="T77" s="43"/>
     </row>
-    <row r="78" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>81</v>
       </c>
@@ -21038,7 +21406,7 @@
       </c>
       <c r="T78" s="43"/>
     </row>
-    <row r="79" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>82</v>
       </c>
@@ -21082,7 +21450,7 @@
       </c>
       <c r="T79" s="43"/>
     </row>
-    <row r="80" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>83</v>
       </c>
@@ -21126,7 +21494,7 @@
       </c>
       <c r="T80" s="43"/>
     </row>
-    <row r="81" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="20">
         <v>84</v>
       </c>
@@ -21168,7 +21536,7 @@
       </c>
       <c r="T81" s="43"/>
     </row>
-    <row r="82" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>85</v>
       </c>
@@ -21210,7 +21578,7 @@
       </c>
       <c r="T82" s="43"/>
     </row>
-    <row r="83" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>86</v>
       </c>
@@ -21254,7 +21622,7 @@
       </c>
       <c r="T83" s="43"/>
     </row>
-    <row r="84" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>87</v>
       </c>
@@ -21296,7 +21664,7 @@
       </c>
       <c r="T84" s="43"/>
     </row>
-    <row r="85" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="20">
         <v>88</v>
       </c>
@@ -21340,7 +21708,7 @@
       </c>
       <c r="T85" s="43"/>
     </row>
-    <row r="86" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20">
         <v>89</v>
       </c>
@@ -21382,7 +21750,7 @@
       </c>
       <c r="T86" s="43"/>
     </row>
-    <row r="87" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="20">
         <v>90</v>
       </c>
@@ -21428,7 +21796,7 @@
       </c>
       <c r="T87" s="43"/>
     </row>
-    <row r="88" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="20">
         <v>91</v>
       </c>
@@ -21470,7 +21838,7 @@
       </c>
       <c r="T88" s="43"/>
     </row>
-    <row r="89" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20">
         <v>92</v>
       </c>
@@ -21514,7 +21882,7 @@
       </c>
       <c r="T89" s="43"/>
     </row>
-    <row r="90" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="20">
         <v>93</v>
       </c>
@@ -21556,7 +21924,7 @@
       </c>
       <c r="T90" s="43"/>
     </row>
-    <row r="91" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="20">
         <v>94</v>
       </c>
@@ -21602,7 +21970,7 @@
       </c>
       <c r="T91" s="43"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="47">
         <v>77</v>
       </c>
@@ -21643,7 +22011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="47">
         <v>78</v>
       </c>
@@ -21698,7 +22066,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
